--- a/R/dev/mapping_1cho.xlsx
+++ b/R/dev/mapping_1cho.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/lta-hhs-fairnessawareness/R/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE2E6E4-66DF-CE42-BAFF-7C739EEEFB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376FE0FB-BB12-2F41-92F3-DC03A4D3E9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B78D59E7-0030-0645-8726-42CC1661625F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{B78D59E7-0030-0645-8726-42CC1661625F}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t xml:space="preserve">from </t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Uit SES data van CBS. Openlijk te verkrijgen</t>
+  </si>
+  <si>
+    <t>CBS data niet duidelijk of het te verkrijgen is</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451CCA4F-1413-6B47-897A-0B7E340EE5BC}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,6 +635,9 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -674,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1001,6 +1007,9 @@
       </c>
       <c r="B37" t="s">
         <v>6</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
